--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EFC95F-6EB7-418B-8B61-84533A42BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2937CE37-6DBF-40DD-A2BC-6DE14DC5AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2937CE37-6DBF-40DD-A2BC-6DE14DC5AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8F0DC6-382E-4E57-B737-DF717B6682CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,14 +488,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1619819423</v>
+        <v>1784323174</v>
       </c>
       <c r="D2">
-        <v>433882556</v>
+        <v>464050648</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.26785859574175508</v>
+        <v>0.26007096402817892</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,14 +509,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6678949104</v>
+        <v>7310908806</v>
       </c>
       <c r="D3">
-        <v>1638169446</v>
+        <v>1733080585</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">D3/C3</f>
-        <v>0.24527353337951113</v>
+        <v>0.23705405593045772</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -530,14 +530,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3894124155</v>
+        <v>4253229544</v>
       </c>
       <c r="D4">
-        <v>848016291</v>
+        <v>920744754</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.21776817000330079</v>
+        <v>0.21648132189312189</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -551,14 +551,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6571356869</v>
+        <v>7196293897</v>
       </c>
       <c r="D5">
-        <v>1424459431</v>
+        <v>1504268649</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.21676793079368523</v>
+        <v>0.20903379858167012</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -572,14 +572,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5824728223</v>
+        <v>6374400927</v>
       </c>
       <c r="D6">
-        <v>1239771028</v>
+        <v>1318101869</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.2128461587451477</v>
+        <v>0.20678050911685306</v>
       </c>
       <c r="F6">
         <v>5</v>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8F0DC6-382E-4E57-B737-DF717B6682CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C99F5A0A-7CEC-44F9-88BE-C9554D3B2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C99F5A0A-7CEC-44F9-88BE-C9554D3B2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F511EF-8E32-43D9-982F-FB4A320C5C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F511EF-8E32-43D9-982F-FB4A320C5C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{551A1312-AC6C-4698-A9A0-860B7879A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>EDN_S1l</t>
   </si>
   <si>
+    <t>Xinghao_s1l</t>
+  </si>
+  <si>
     <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>Xinghao_s1l</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,11 +491,11 @@
         <v>1784323174</v>
       </c>
       <c r="D2">
-        <v>464050648</v>
+        <v>495335588</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.26007096402817892</v>
+        <v>0.2776041892061421</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -512,11 +512,11 @@
         <v>7310908806</v>
       </c>
       <c r="D3">
-        <v>1733080585</v>
+        <v>1843140130</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">D3/C3</f>
-        <v>0.23705405593045772</v>
+        <v>0.2521082096506731</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -533,11 +533,11 @@
         <v>4253229544</v>
       </c>
       <c r="D4">
-        <v>920744754</v>
+        <v>984226650</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.21648132189312189</v>
+        <v>0.2314068967635291</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -551,14 +551,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>7196293897</v>
+        <v>6374400927</v>
       </c>
       <c r="D5">
-        <v>1504268649</v>
+        <v>1397429537</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.20903379858167012</v>
+        <v>0.2192252343402058</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -572,14 +572,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>6374400927</v>
+        <v>7196293897</v>
       </c>
       <c r="D6">
-        <v>1318101869</v>
+        <v>1574723547</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.20678050911685306</v>
+        <v>0.21882424057978964</v>
       </c>
       <c r="F6">
         <v>5</v>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{551A1312-AC6C-4698-A9A0-860B7879A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1E1E1B-62B9-49B5-8717-FEE2611C095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,14 +488,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1784323174</v>
+        <v>1857614943</v>
       </c>
       <c r="D2">
-        <v>495335588</v>
+        <v>518319157</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.2776041892061421</v>
+        <v>0.27902400276934036</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,14 +509,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7310908806</v>
+        <v>7565664080</v>
       </c>
       <c r="D3">
-        <v>1843140130</v>
+        <v>1901981555</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">D3/C3</f>
-        <v>0.2521082096506731</v>
+        <v>0.25139651124980955</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -530,14 +530,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4253229544</v>
+        <v>4413229239</v>
       </c>
       <c r="D4">
-        <v>984226650</v>
+        <v>1034612279</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.2314068967635291</v>
+        <v>0.23443429356831558</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -551,14 +551,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6374400927</v>
+        <v>6613099117</v>
       </c>
       <c r="D5">
-        <v>1397429537</v>
+        <v>1458080341</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.2192252343402058</v>
+        <v>0.2204836666143076</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -572,14 +572,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>7196293897</v>
+        <v>7472398163</v>
       </c>
       <c r="D6">
-        <v>1574723547</v>
+        <v>1638915666</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.21882424057978964</v>
+        <v>0.21932927425029131</v>
       </c>
       <c r="F6">
         <v>5</v>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1E1E1B-62B9-49B5-8717-FEE2611C095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72705D40-0756-4835-B434-D54DA55FDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72705D40-0756-4835-B434-D54DA55FDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDE31FB-3A46-4A46-B209-4EA5B6ABB610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,14 +488,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1857614943</v>
+        <v>1936832994</v>
       </c>
       <c r="D2">
-        <v>518319157</v>
+        <v>547732842</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.27902400276934036</v>
+        <v>0.28279817810662511</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,14 +509,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7565664080</v>
+        <v>7848912935</v>
       </c>
       <c r="D3">
-        <v>1901981555</v>
+        <v>1971679882</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">D3/C3</f>
-        <v>0.25139651124980955</v>
+        <v>0.25120419838113545</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -530,14 +530,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4413229239</v>
+        <v>4593972824</v>
       </c>
       <c r="D4">
-        <v>1034612279</v>
+        <v>1080293151</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.23443429356831558</v>
+        <v>0.23515444962066237</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -551,14 +551,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6613099117</v>
+        <v>6887766656</v>
       </c>
       <c r="D5">
-        <v>1458080341</v>
+        <v>1518357404</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.2204836666143076</v>
+        <v>0.22044263109252463</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -572,14 +572,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>7472398163</v>
+        <v>7807949106</v>
       </c>
       <c r="D6">
-        <v>1638915666</v>
+        <v>1718944460</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.21932927425029131</v>
+        <v>0.22015313325737243</v>
       </c>
       <c r="F6">
         <v>5</v>

--- a/riskuy2.xlsx
+++ b/riskuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDE31FB-3A46-4A46-B209-4EA5B6ABB610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3F619F-3B0D-42F2-9986-AB88A4DF3249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,14 +488,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1936832994</v>
+        <v>2027754966</v>
       </c>
       <c r="D2">
-        <v>547732842</v>
+        <v>581338128</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.28279817810662511</v>
+        <v>0.28669052116625415</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -509,14 +509,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7848912935</v>
+        <v>8186693023</v>
       </c>
       <c r="D3">
-        <v>1971679882</v>
+        <v>2077596796</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">D3/C3</f>
-        <v>0.25120419838113545</v>
+        <v>0.25377729324442999</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -530,14 +530,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4593972824</v>
+        <v>4768579997</v>
       </c>
       <c r="D4">
-        <v>1080293151</v>
+        <v>1138559903</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.23515444962066237</v>
+        <v>0.23876288197247161</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -551,14 +551,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6887766656</v>
+        <v>7170315489</v>
       </c>
       <c r="D5">
-        <v>1518357404</v>
+        <v>1590342610</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.22044263109252463</v>
+        <v>0.22179534672355056</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -572,14 +572,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>7807949106</v>
+        <v>8122928131</v>
       </c>
       <c r="D6">
-        <v>1718944460</v>
+        <v>1798640824</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.22015313325737243</v>
+        <v>0.22142764222371278</v>
       </c>
       <c r="F6">
         <v>5</v>
